--- a/联创项目进度.xlsx
+++ b/联创项目进度.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoryx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_Fire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>项目</t>
   </si>
@@ -413,6 +413,10 @@
   </si>
   <si>
     <t>物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,6 +755,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,15 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,11 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1078,39 +1082,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1172,8 +1176,8 @@
       <c r="S2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -1227,7 +1231,7 @@
       <c r="E5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1301,7 +1305,7 @@
       <c r="E9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -1320,7 +1324,7 @@
       <c r="E10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -1394,7 +1398,7 @@
       <c r="E14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -1413,7 +1417,7 @@
       <c r="E15" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -1423,18 +1427,16 @@
       <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="D16" s="42"/>
       <c r="E16" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="F16" s="44"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -1445,10 +1447,16 @@
     </row>
     <row r="17" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="36"/>
+      <c r="E17" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -1505,16 +1513,10 @@
     </row>
     <row r="21" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>72</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="E21" s="36"/>
       <c r="F21" s="27"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1526,9 +1528,11 @@
     </row>
     <row r="22" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="36" t="s">
@@ -1547,13 +1551,11 @@
       <c r="A23" s="6"/>
       <c r="B23" s="32"/>
       <c r="C23" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="25"/>
@@ -1566,13 +1568,13 @@
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="E24" s="36" t="s">
         <v>53</v>
       </c>
@@ -1587,12 +1589,15 @@
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
+      <c r="B25" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="36" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="25"/>
@@ -1605,9 +1610,13 @@
     </row>
     <row r="26" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="C26" s="25"/>
+      <c r="C26" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="F26" s="27"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -1619,17 +1628,10 @@
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="C27" s="25"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="47"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -1638,52 +1640,54 @@
       <c r="T27" s="24"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="M28" s="10"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="10"/>
-    </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31" t="s">
+    <row r="28" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="M28" s="6"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="M29" s="10"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B30" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="M29" s="6"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="27"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -1696,18 +1700,14 @@
     <row r="31" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
@@ -1718,15 +1718,19 @@
     </row>
     <row r="32" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="D32" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="F32" s="44"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
@@ -1737,19 +1741,15 @@
     </row>
     <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>77</v>
-      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
@@ -1760,11 +1760,19 @@
     </row>
     <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="44"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
@@ -1775,16 +1783,10 @@
     </row>
     <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="36" t="s">
-        <v>76</v>
-      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="27"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -1796,10 +1798,16 @@
     </row>
     <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="D36" s="27"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="36" t="s">
+        <v>76</v>
+      </c>
       <c r="F36" s="27"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -1811,16 +1819,10 @@
     </row>
     <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>74</v>
-      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="E37" s="36"/>
       <c r="F37" s="27"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
@@ -1832,9 +1834,16 @@
     </row>
     <row r="38" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="F38" s="27"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -1846,14 +1855,9 @@
     </row>
     <row r="39" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="32" t="s">
-        <v>54</v>
-      </c>
       <c r="C39" s="25"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="36" t="s">
-        <v>81</v>
-      </c>
+      <c r="E39" s="36"/>
       <c r="F39" s="27"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -1865,10 +1869,14 @@
     </row>
     <row r="40" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="24"/>
+      <c r="B40" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="C40" s="25"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="F40" s="27"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
@@ -1879,47 +1887,44 @@
       <c r="U40" s="6"/>
     </row>
     <row r="41" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="M41" s="6"/>
       <c r="T41" s="24"/>
       <c r="U41" s="6"/>
     </row>
     <row r="42" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="14"/>
+      <c r="A42" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="46"/>
+      <c r="M42" s="6"/>
       <c r="T42" s="24"/>
       <c r="U42" s="6"/>
     </row>
     <row r="43" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="7"/>
@@ -1928,8 +1933,6 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
       <c r="M43" s="17"/>
       <c r="N43" s="14"/>
       <c r="T43" s="24"/>
@@ -1937,11 +1940,9 @@
     </row>
     <row r="44" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="7"/>
@@ -1950,9 +1951,9 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="14"/>
       <c r="T44" s="24"/>
       <c r="U44" s="6"/>
@@ -1960,10 +1961,10 @@
     <row r="45" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="7"/>
@@ -1975,15 +1976,18 @@
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="19"/>
+      <c r="N45" s="14"/>
       <c r="T45" s="24"/>
       <c r="U45" s="6"/>
     </row>
     <row r="46" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="D46" s="27"/>
       <c r="E46" s="7"/>
       <c r="F46" s="27"/>
@@ -2000,7 +2004,7 @@
     <row r="47" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="27"/>
@@ -2019,7 +2023,7 @@
     <row r="48" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="27"/>
@@ -2038,7 +2042,7 @@
     <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="27"/>
@@ -2056,7 +2060,9 @@
     </row>
     <row r="50" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
-      <c r="B50" s="24"/>
+      <c r="B50" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="C50" s="25"/>
       <c r="D50" s="27"/>
       <c r="E50" s="7"/>
@@ -2146,7 +2152,7 @@
       <c r="D55" s="27"/>
       <c r="E55" s="7"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="24"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -2163,7 +2169,7 @@
       <c r="D56" s="27"/>
       <c r="E56" s="7"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -2231,7 +2237,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="7"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
@@ -2248,7 +2254,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="7"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
@@ -2297,7 +2303,7 @@
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="27"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -2394,9 +2400,26 @@
       <c r="T69" s="24"/>
       <c r="U69" s="6"/>
     </row>
+    <row r="70" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="19"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="A1:G1"/>
